--- a/dataSet/Linux_yangben.xlsx
+++ b/dataSet/Linux_yangben.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF613D-87EB-4A26-865B-D408F693B20E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525BEB21-D4D1-4746-AEEF-E2E715381946}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="29100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,240 +409,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IK1"/>
+  <dimension ref="A1:IK39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:IK1"/>
+      <selection sqref="A1:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:245" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>0.788802797</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.871036912</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.93627137100000002</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.98526064000000002</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.841992254</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0.77890178399999999</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0.83653197199999996</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0.76102502100000002</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0.88998255900000001</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0.59012692</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0.88096299300000003</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.77682929199999995</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0.65118232799999998</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0.22559865700000001</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0.67659668500000003</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0.15756610300000001</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0.51184696600000001</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0.28663417499999999</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0.86949256500000005</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0.39537892200000002</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0.46122979800000002</v>
-      </c>
-      <c r="V1" s="1">
-        <v>0.797900049</v>
-      </c>
-      <c r="W1" s="1">
-        <v>0.91333280100000003</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0.58220145300000004</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>0.73106922299999999</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>0.32308500400000001</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0.14037239600000001</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>0.15457374600000001</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0.46421985599999999</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0.156594924</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0.40579160399999997</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0.184145802</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>0.23558977</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0.33247738500000001</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0.41494090300000003</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0.53385027699999998</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0.20246396999999999</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0.20246396999999999</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>0.34799460700000001</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>0.29595171100000001</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>0.29302222999999999</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>0.47648987900000001</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0.222040986</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>0.20246396999999999</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0.195183412</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>0.34854795799999999</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>0.41999882999999999</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>0.36803510099999998</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0.12416685</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>0.29498202000000001</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>0.58244878600000005</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>0.56147794500000003</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>0.16195725999999999</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>0.116802879</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>0.236838409</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>0.157154971</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>0.140252135</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>0.39475616299999999</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>0.13046113300000001</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>0.55387838199999995</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>0.539640605</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>0.42967382700000001</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>0.185759914</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>0.21973973999999999</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>0.49775817300000003</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>0.26664969799999999</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>0.49693366700000002</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>0.38616793399999999</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>0.193361061</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>0.124412591</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>0.21088205900000001</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>0.60350808600000005</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>0.23386241399999999</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>0.222040986</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>0.49991500300000002</v>
-      </c>
+      <c r="A1">
+        <v>0.62343345903883529</v>
+      </c>
+      <c r="B1">
+        <v>0.44364739554051225</v>
+      </c>
+      <c r="C1">
+        <v>0.32758371341132569</v>
+      </c>
+      <c r="D1">
+        <v>-0.71798963017608475</v>
+      </c>
+      <c r="E1">
+        <v>-0.56942652161839424</v>
+      </c>
+      <c r="F1">
+        <v>0.41271912905047159</v>
+      </c>
+      <c r="G1">
+        <v>-1.0609077285106041</v>
+      </c>
+      <c r="H1">
+        <v>1.3948017306036764</v>
+      </c>
+      <c r="I1">
+        <v>-0.98165248296871299</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
@@ -814,6 +682,1108 @@
       <c r="IJ1" s="1"/>
       <c r="IK1" s="1"/>
     </row>
+    <row r="2" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.45951068188267435</v>
+      </c>
+      <c r="B2">
+        <v>0.17696874009958555</v>
+      </c>
+      <c r="C2">
+        <v>-8.4929110884418138E-2</v>
+      </c>
+      <c r="D2">
+        <v>-0.60516268829127151</v>
+      </c>
+      <c r="E2">
+        <v>-0.51801996074605283</v>
+      </c>
+      <c r="F2">
+        <v>9.8994808497676196E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.2538610469611111</v>
+      </c>
+      <c r="H2">
+        <v>4.979305006494391E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.3767687437340139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.38892192616949495</v>
+      </c>
+      <c r="B3">
+        <v>0.1299078009041279</v>
+      </c>
+      <c r="C3">
+        <v>7.2796380758072141E-2</v>
+      </c>
+      <c r="D3">
+        <v>-8.2055957734409754E-2</v>
+      </c>
+      <c r="E3">
+        <v>-0.10676747376732186</v>
+      </c>
+      <c r="F3">
+        <v>-0.18379894524005497</v>
+      </c>
+      <c r="G3">
+        <v>-0.46898473289065501</v>
+      </c>
+      <c r="H3">
+        <v>0.94129736281395981</v>
+      </c>
+      <c r="I3">
+        <v>-0.50583065652868919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>-0.4568359432087839</v>
+      </c>
+      <c r="B4">
+        <v>-0.7421902285616967</v>
+      </c>
+      <c r="C4">
+        <v>2.547873326532534</v>
+      </c>
+      <c r="D4">
+        <v>-0.45130776753925328</v>
+      </c>
+      <c r="E4">
+        <v>-1.0320855694694666</v>
+      </c>
+      <c r="F4">
+        <v>-0.36993467768071003</v>
+      </c>
+      <c r="G4">
+        <v>-1.2976769267585837</v>
+      </c>
+      <c r="H4">
+        <v>1.2823946650831484</v>
+      </c>
+      <c r="I4">
+        <v>-1.3510793668507191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5.3494616613905532E-2</v>
+      </c>
+      <c r="B5">
+        <v>-0.24020687714348177</v>
+      </c>
+      <c r="C5">
+        <v>-0.78862745821245095</v>
+      </c>
+      <c r="D5">
+        <v>0.14359792603521682</v>
+      </c>
+      <c r="E5">
+        <v>1.0755834262965298</v>
+      </c>
+      <c r="F5">
+        <v>-0.52955849570845281</v>
+      </c>
+      <c r="G5">
+        <v>0.9516304565972229</v>
+      </c>
+      <c r="H5">
+        <v>-0.89597674259053339</v>
+      </c>
+      <c r="I5">
+        <v>0.52856461834092794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>-0.43199915879118378</v>
+      </c>
+      <c r="B6">
+        <v>-0.67454012846822631</v>
+      </c>
+      <c r="C6">
+        <v>-0.16985822176883586</v>
+      </c>
+      <c r="D6">
+        <v>-1.220582371299344</v>
+      </c>
+      <c r="E6">
+        <v>0.30448501321140914</v>
+      </c>
+      <c r="F6">
+        <v>-0.61185589669853468</v>
+      </c>
+      <c r="G6">
+        <v>-0.76494623070062961</v>
+      </c>
+      <c r="H6">
+        <v>-0.64402987159624636</v>
+      </c>
+      <c r="I6">
+        <v>-0.70975429643155652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-0.1310819075842598</v>
+      </c>
+      <c r="B7">
+        <v>-0.40393972809434486</v>
+      </c>
+      <c r="C7">
+        <v>4.8530920505381422E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.62567667772487401</v>
+      </c>
+      <c r="E7">
+        <v>-3.9543520226391184E-3</v>
+      </c>
+      <c r="F7">
+        <v>-0.46714503052805512</v>
+      </c>
+      <c r="G7">
+        <v>0.18213056229128907</v>
+      </c>
+      <c r="H7">
+        <v>-0.66728650584187288</v>
+      </c>
+      <c r="I7">
+        <v>0.53743086355409597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6.0553492185223469E-2</v>
+      </c>
+      <c r="B8">
+        <v>-0.3093276315868102</v>
+      </c>
+      <c r="C8">
+        <v>-0.181990951895181</v>
+      </c>
+      <c r="D8">
+        <v>0.45130776753925311</v>
+      </c>
+      <c r="E8">
+        <v>1.7952752785093087</v>
+      </c>
+      <c r="F8">
+        <v>-0.58037299833320133</v>
+      </c>
+      <c r="G8">
+        <v>0.9516304565972229</v>
+      </c>
+      <c r="H8">
+        <v>-0.86496789692969822</v>
+      </c>
+      <c r="I8">
+        <v>-0.2161999795651964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6.159925152912242E-2</v>
+      </c>
+      <c r="B9">
+        <v>-0.27011018225726213</v>
+      </c>
+      <c r="C9">
+        <v>0.52170739543285183</v>
+      </c>
+      <c r="D9">
+        <v>0.88210154564490428</v>
+      </c>
+      <c r="E9">
+        <v>-0.15817403463966323</v>
+      </c>
+      <c r="F9">
+        <v>-0.37601032473366908</v>
+      </c>
+      <c r="G9">
+        <v>-0.11383093551868551</v>
+      </c>
+      <c r="H9">
+        <v>-0.19052550380652974</v>
+      </c>
+      <c r="I9">
+        <v>-0.50878607159974509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3.4014931561064063</v>
+      </c>
+      <c r="B10">
+        <v>3.0918056615182441</v>
+      </c>
+      <c r="C10">
+        <v>0.54597285568554299</v>
+      </c>
+      <c r="D10">
+        <v>-1.3846942867681635</v>
+      </c>
+      <c r="E10">
+        <v>-0.62083308249073554</v>
+      </c>
+      <c r="F10">
+        <v>3.0119914046164142</v>
+      </c>
+      <c r="G10">
+        <v>0.5964766592252535</v>
+      </c>
+      <c r="H10">
+        <v>1.7010140815044252</v>
+      </c>
+      <c r="I10">
+        <v>2.2220174540560436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.12931216904657969</v>
+      </c>
+      <c r="B11">
+        <v>-0.3431526816335454</v>
+      </c>
+      <c r="C11">
+        <v>-1.1526093620028128</v>
+      </c>
+      <c r="D11">
+        <v>1.8154880648738145</v>
+      </c>
+      <c r="E11">
+        <v>1.8466818393816502</v>
+      </c>
+      <c r="F11">
+        <v>-0.58755330848669851</v>
+      </c>
+      <c r="G11">
+        <v>6.3745963167299233E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.96574664532741294</v>
+      </c>
+      <c r="I11">
+        <v>-0.36988156326011079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0.12643633085085756</v>
+      </c>
+      <c r="B12">
+        <v>-3.3334831930115841E-2</v>
+      </c>
+      <c r="C12">
+        <v>-1.2132730126345572E-2</v>
+      </c>
+      <c r="D12">
+        <v>-0.88210154564490406</v>
+      </c>
+      <c r="E12">
+        <v>-0.92927244772478379</v>
+      </c>
+      <c r="F12">
+        <v>0.74853671161402735</v>
+      </c>
+      <c r="G12">
+        <v>-0.29140783420467026</v>
+      </c>
+      <c r="H12">
+        <v>-2.3852958379539796E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.54038627862515221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>-0.54624836711214442</v>
+      </c>
+      <c r="B13">
+        <v>-0.82552730838698629</v>
+      </c>
+      <c r="C13">
+        <v>-1.6743167574356652</v>
+      </c>
+      <c r="D13">
+        <v>1.4257222656353681</v>
+      </c>
+      <c r="E13">
+        <v>-1.0834921303418079</v>
+      </c>
+      <c r="F13">
+        <v>-0.56601237802620719</v>
+      </c>
+      <c r="G13">
+        <v>-1.0017154289486092</v>
+      </c>
+      <c r="H13">
+        <v>-1.116914767923985</v>
+      </c>
+      <c r="I13">
+        <v>-0.56198354287875407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>-0.63144039091428605</v>
+      </c>
+      <c r="B14">
+        <v>-0.71799187212847781</v>
+      </c>
+      <c r="C14">
+        <v>0.18517082883341951</v>
+      </c>
+      <c r="D14">
+        <v>0.87593817773136018</v>
+      </c>
+      <c r="E14">
+        <v>-0.39775501235813854</v>
+      </c>
+      <c r="F14">
+        <v>-0.63408771298819055</v>
+      </c>
+      <c r="G14">
+        <v>-0.96227896077156072</v>
+      </c>
+      <c r="H14">
+        <v>-0.4479899320382334</v>
+      </c>
+      <c r="I14">
+        <v>-9.3137119464740098E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>-0.35481668736657662</v>
+      </c>
+      <c r="B15">
+        <v>-0.66342542259590109</v>
+      </c>
+      <c r="C15">
+        <v>-1.3154343317321857</v>
+      </c>
+      <c r="D15">
+        <v>1.7273173407186651</v>
+      </c>
+      <c r="E15">
+        <v>-0.65890729304106654</v>
+      </c>
+      <c r="F15">
+        <v>-0.26784739600363217</v>
+      </c>
+      <c r="G15">
+        <v>-0.58699016595806541</v>
+      </c>
+      <c r="H15">
+        <v>-0.84597643166401115</v>
+      </c>
+      <c r="I15">
+        <v>-0.5644774713119064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:245" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0.3217449008284235</v>
+      </c>
+      <c r="B16">
+        <v>0.47337560933278011</v>
+      </c>
+      <c r="C16">
+        <v>-9.1726551985233953E-2</v>
+      </c>
+      <c r="D16">
+        <v>-0.5677047508123314</v>
+      </c>
+      <c r="E16">
+        <v>0.17678000514430295</v>
+      </c>
+      <c r="F16">
+        <v>-8.7460374205267546E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.1643575431715796</v>
+      </c>
+      <c r="H16">
+        <v>-0.17382145451825332</v>
+      </c>
+      <c r="I16">
+        <v>0.60738707318884666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0.13177440562096041</v>
+      </c>
+      <c r="B17">
+        <v>4.6638005044874215E-4</v>
+      </c>
+      <c r="C17">
+        <v>-0.62765696647294988</v>
+      </c>
+      <c r="D17">
+        <v>-8.6490441297767659E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.75131502264674443</v>
+      </c>
+      <c r="F17">
+        <v>-0.7215480871934582</v>
+      </c>
+      <c r="G17">
+        <v>0.41377995354458885</v>
+      </c>
+      <c r="H17">
+        <v>-0.63371696519692966</v>
+      </c>
+      <c r="I17">
+        <v>-0.69420417365516318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0.35840587358775849</v>
+      </c>
+      <c r="B18">
+        <v>0.68557846862613392</v>
+      </c>
+      <c r="C18">
+        <v>0.47100038322686805</v>
+      </c>
+      <c r="D18">
+        <v>-1.2062391230528104</v>
+      </c>
+      <c r="E18">
+        <v>-8.4372275538625002E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.55755988555858127</v>
+      </c>
+      <c r="G18">
+        <v>-1.0873752257093925</v>
+      </c>
+      <c r="H18">
+        <v>1.0732029109758505</v>
+      </c>
+      <c r="I18">
+        <v>-0.94068490810735117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>-0.44813552711761112</v>
+      </c>
+      <c r="B19">
+        <v>-0.52700929876445934</v>
+      </c>
+      <c r="C19">
+        <v>-0.40435262710306835</v>
+      </c>
+      <c r="D19">
+        <v>0.37621562554315907</v>
+      </c>
+      <c r="E19">
+        <v>-0.50221592463130971</v>
+      </c>
+      <c r="F19">
+        <v>-0.25144857584014441</v>
+      </c>
+      <c r="G19">
+        <v>-0.46189390102023364</v>
+      </c>
+      <c r="H19">
+        <v>-0.56296380970790261</v>
+      </c>
+      <c r="I19">
+        <v>0.11010138087302879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>0.30008159874336193</v>
+      </c>
+      <c r="B20">
+        <v>0.10050487086017268</v>
+      </c>
+      <c r="C20">
+        <v>0.83721949979347421</v>
+      </c>
+      <c r="D20">
+        <v>0.57980629495316682</v>
+      </c>
+      <c r="E20">
+        <v>0.33347137355405976</v>
+      </c>
+      <c r="F20">
+        <v>-0.43183559763850898</v>
+      </c>
+      <c r="G20">
+        <v>-0.21170137114457008</v>
+      </c>
+      <c r="H20">
+        <v>0.17994432292688239</v>
+      </c>
+      <c r="I20">
+        <v>-0.2920513963910672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>-6.9860944555381999E-2</v>
+      </c>
+      <c r="B21">
+        <v>6.7158707256931377E-2</v>
+      </c>
+      <c r="C21">
+        <v>-0.18104828773318665</v>
+      </c>
+      <c r="D21">
+        <v>-0.41963880942323489</v>
+      </c>
+      <c r="E21">
+        <v>-0.24106364394838178</v>
+      </c>
+      <c r="F21">
+        <v>9.8392920980926155E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.5396463379850749</v>
+      </c>
+      <c r="H21">
+        <v>-0.1296007323376113</v>
+      </c>
+      <c r="I21">
+        <v>0.13604672134168036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>-0.55645203754291905</v>
+      </c>
+      <c r="B22">
+        <v>-0.46031697155797668</v>
+      </c>
+      <c r="C22">
+        <v>-0.47581001570143028</v>
+      </c>
+      <c r="D22">
+        <v>-0.41038468808641637</v>
+      </c>
+      <c r="E22">
+        <v>-0.50221592463130971</v>
+      </c>
+      <c r="F22">
+        <v>-5.4662733878292291E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.91416501329591593</v>
+      </c>
+      <c r="H22">
+        <v>-0.42145749872984817</v>
+      </c>
+      <c r="I22">
+        <v>0.39550012602819384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>-0.94305865936863342</v>
+      </c>
+      <c r="B23">
+        <v>-0.99688705862831417</v>
+      </c>
+      <c r="C23">
+        <v>-0.79736826439406006</v>
+      </c>
+      <c r="D23">
+        <v>2.5046635330114224</v>
+      </c>
+      <c r="E23">
+        <v>-0.65890729304106654</v>
+      </c>
+      <c r="F23">
+        <v>-0.88553628882833502</v>
+      </c>
+      <c r="G23">
+        <v>-1.2124714906472243</v>
+      </c>
+      <c r="H23">
+        <v>-0.73100255399434211</v>
+      </c>
+      <c r="I23">
+        <v>-0.92338801446158358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>-0.10818832516741403</v>
+      </c>
+      <c r="B24">
+        <v>-0.16929590738423431</v>
+      </c>
+      <c r="C24">
+        <v>-0.36862393280388711</v>
+      </c>
+      <c r="D24">
+        <v>-0.41963880942323489</v>
+      </c>
+      <c r="E24">
+        <v>2.0088636734546181E-2</v>
+      </c>
+      <c r="F24">
+        <v>-0.41543677747502139</v>
+      </c>
+      <c r="G24">
+        <v>1.2894538081094113</v>
+      </c>
+      <c r="H24">
+        <v>-0.1826655989543815</v>
+      </c>
+      <c r="I24">
+        <v>-0.20124270475078743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>-0.88806720022963093</v>
+      </c>
+      <c r="B25">
+        <v>-0.80287301584581927</v>
+      </c>
+      <c r="C25">
+        <v>0.31915343245534855</v>
+      </c>
+      <c r="D25">
+        <v>-0.74353305621188359</v>
+      </c>
+      <c r="E25">
+        <v>-0.81559866145082327</v>
+      </c>
+      <c r="F25">
+        <v>0.4154367774750215</v>
+      </c>
+      <c r="G25">
+        <v>0.41377995354458885</v>
+      </c>
+      <c r="H25">
+        <v>-0.20919803226276673</v>
+      </c>
+      <c r="I25">
+        <v>2.0300565755532296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>-3.9865603206835194E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.23388952527313794</v>
+      </c>
+      <c r="C26">
+        <v>-0.23464132918195807</v>
+      </c>
+      <c r="D26">
+        <v>-1.252509729736903</v>
+      </c>
+      <c r="E26">
+        <v>0.5423931981004021</v>
+      </c>
+      <c r="F26">
+        <v>-0.50289715168028903</v>
+      </c>
+      <c r="G26">
+        <v>0.16358742366892526</v>
+      </c>
+      <c r="H26">
+        <v>-0.28879533218792236</v>
+      </c>
+      <c r="I26">
+        <v>6.2534923347168203E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>-0.85807185888108417</v>
+      </c>
+      <c r="B27">
+        <v>-0.94535207851421399</v>
+      </c>
+      <c r="C27">
+        <v>-0.3507595856542966</v>
+      </c>
+      <c r="D27">
+        <v>1.7735879474027576</v>
+      </c>
+      <c r="E27">
+        <v>-0.76336820531423766</v>
+      </c>
+      <c r="F27">
+        <v>-0.58489125249772744</v>
+      </c>
+      <c r="G27">
+        <v>-1.337567755585056</v>
+      </c>
+      <c r="H27">
+        <v>-0.42145749872984817</v>
+      </c>
+      <c r="I27">
+        <v>-1.1395991850336784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>-0.77475146624623192</v>
+      </c>
+      <c r="B28">
+        <v>-0.95141501735116696</v>
+      </c>
+      <c r="C28">
+        <v>-1.422620414629729</v>
+      </c>
+      <c r="D28">
+        <v>-1.2154932443896289</v>
+      </c>
+      <c r="E28">
+        <v>-0.60667683690448093</v>
+      </c>
+      <c r="F28">
+        <v>-0.93473274931879824</v>
+      </c>
+      <c r="G28">
+        <v>-1.337567755585056</v>
+      </c>
+      <c r="H28">
+        <v>-1.0405476092588357</v>
+      </c>
+      <c r="I28">
+        <v>-1.2433805469082839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>-0.70309592858025893</v>
+      </c>
+      <c r="B29">
+        <v>-0.73618068863933661</v>
+      </c>
+      <c r="C29">
+        <v>0.21196734955780538</v>
+      </c>
+      <c r="D29">
+        <v>9.8591985438603036E-2</v>
+      </c>
+      <c r="E29">
+        <v>-0.65890729304106654</v>
+      </c>
+      <c r="F29">
+        <v>-0.21318466212533985</v>
+      </c>
+      <c r="G29">
+        <v>-0.58699016595806541</v>
+      </c>
+      <c r="H29">
+        <v>-0.19150974339050991</v>
+      </c>
+      <c r="I29">
+        <v>1.0225125206872685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>0.69335385197986443</v>
+      </c>
+      <c r="B30">
+        <v>0.57947703897945702</v>
+      </c>
+      <c r="C30">
+        <v>-0.94028304159078435</v>
+      </c>
+      <c r="D30">
+        <v>0.20038732014360705</v>
+      </c>
+      <c r="E30">
+        <v>1.0646977594662581</v>
+      </c>
+      <c r="F30">
+        <v>-0.66141907992733673</v>
+      </c>
+      <c r="G30">
+        <v>-8.6605106206738294E-2</v>
+      </c>
+      <c r="H30">
+        <v>-0.78406742061111245</v>
+      </c>
+      <c r="I30">
+        <v>-0.62069237566065105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>-0.78641632121511118</v>
+      </c>
+      <c r="B31">
+        <v>-0.74224362747628958</v>
+      </c>
+      <c r="C31">
+        <v>0.31915343245534855</v>
+      </c>
+      <c r="D31">
+        <v>-9.5744562634586E-2</v>
+      </c>
+      <c r="E31">
+        <v>-0.71113774917765216</v>
+      </c>
+      <c r="F31">
+        <v>6.0129007266121595E-2</v>
+      </c>
+      <c r="G31">
+        <v>-0.58699016595806541</v>
+      </c>
+      <c r="H31">
+        <v>-0.17382145451825332</v>
+      </c>
+      <c r="I31">
+        <v>0.64630508389182373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>2.2581108256623894</v>
+      </c>
+      <c r="B32">
+        <v>1.928480930201492</v>
+      </c>
+      <c r="C32">
+        <v>-0.30609871778032027</v>
+      </c>
+      <c r="D32">
+        <v>0.4595027175745261</v>
+      </c>
+      <c r="E32">
+        <v>3.5717596540223666</v>
+      </c>
+      <c r="F32">
+        <v>-0.62862143960036132</v>
+      </c>
+      <c r="G32">
+        <v>0.91416501329591593</v>
+      </c>
+      <c r="H32">
+        <v>-0.31532776549630753</v>
+      </c>
+      <c r="I32">
+        <v>-0.42610232214576593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1.4065764129341995</v>
+      </c>
+      <c r="B33">
+        <v>1.6313969271907967</v>
+      </c>
+      <c r="C33">
+        <v>7.7984745935876343E-2</v>
+      </c>
+      <c r="D33">
+        <v>-0.79905778423279483</v>
+      </c>
+      <c r="E33">
+        <v>0.33347137355405976</v>
+      </c>
+      <c r="F33">
+        <v>0.61222261943687362</v>
+      </c>
+      <c r="G33">
+        <v>0.53887621848242062</v>
+      </c>
+      <c r="H33">
+        <v>0.4541128004468627</v>
+      </c>
+      <c r="I33">
+        <v>0.6808988711833589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1.5948805002889657</v>
+      </c>
+      <c r="B34">
+        <v>1.9982047268264511</v>
+      </c>
+      <c r="C34">
+        <v>-0.24357350275675346</v>
+      </c>
+      <c r="D34">
+        <v>-0.75278717754870206</v>
+      </c>
+      <c r="E34">
+        <v>1.7959241453784562</v>
+      </c>
+      <c r="F34">
+        <v>-0.2569148492279737</v>
+      </c>
+      <c r="G34">
+        <v>1.1643575431715796</v>
+      </c>
+      <c r="H34">
+        <v>-0.27995118775179395</v>
+      </c>
+      <c r="I34">
+        <v>0.2268554129819601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>-0.8447405960595078</v>
+      </c>
+      <c r="B35">
+        <v>-0.78468419933496036</v>
+      </c>
+      <c r="C35">
+        <v>-0.77950391724446955</v>
+      </c>
+      <c r="D35">
+        <v>-0.87309075492734312</v>
+      </c>
+      <c r="E35">
+        <v>-0.71113774917765216</v>
+      </c>
+      <c r="F35">
+        <v>-0.24598230245231531</v>
+      </c>
+      <c r="G35">
+        <v>-0.96227896077156072</v>
+      </c>
+      <c r="H35">
+        <v>-0.61602867632467306</v>
+      </c>
+      <c r="I35">
+        <v>-0.21853959839655504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>-0.31648930675454462</v>
+      </c>
+      <c r="B36">
+        <v>-0.3905931749330176</v>
+      </c>
+      <c r="C36">
+        <v>0.28342473815616759</v>
+      </c>
+      <c r="D36">
+        <v>1.2090865458568272</v>
+      </c>
+      <c r="E36">
+        <v>-0.34552455622155298</v>
+      </c>
+      <c r="F36">
+        <v>-0.29517876294277828</v>
+      </c>
+      <c r="G36">
+        <v>0.91416501329591593</v>
+      </c>
+      <c r="H36">
+        <v>-0.1561331656459965</v>
+      </c>
+      <c r="I36">
+        <v>0.57711750930875327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>2.7313706558283499</v>
+      </c>
+      <c r="B37">
+        <v>2.4317048536685881</v>
+      </c>
+      <c r="C37">
+        <v>0.39061082105371076</v>
+      </c>
+      <c r="D37">
+        <v>0.64458514431089675</v>
+      </c>
+      <c r="E37">
+        <v>0.75131502264674443</v>
+      </c>
+      <c r="F37">
+        <v>0.61222261943687362</v>
+      </c>
+      <c r="G37">
+        <v>3.8491158731093489E-2</v>
+      </c>
+      <c r="H37">
+        <v>2.5059543096286503</v>
+      </c>
+      <c r="I37">
+        <v>-0.17097314087069407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>-0.63810602232507418</v>
+      </c>
+      <c r="B38">
+        <v>-0.43303374679168832</v>
+      </c>
+      <c r="C38">
+        <v>1.8376229401705442</v>
+      </c>
+      <c r="D38">
+        <v>-0.66024596418051673</v>
+      </c>
+      <c r="E38">
+        <v>-0.76336820531423766</v>
+      </c>
+      <c r="F38">
+        <v>1.7109435703905487</v>
+      </c>
+      <c r="G38">
+        <v>1.6647426029229067</v>
+      </c>
+      <c r="H38">
+        <v>1.0555146221035936</v>
+      </c>
+      <c r="I38">
+        <v>2.8949012578416085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>-0.83474214894332555</v>
+      </c>
+      <c r="B39">
+        <v>-0.80893595468277224</v>
+      </c>
+      <c r="C39">
+        <v>3.606193307980007</v>
+      </c>
+      <c r="D39">
+        <v>-0.94712372562189129</v>
+      </c>
+      <c r="E39">
+        <v>-0.92005957372399449</v>
+      </c>
+      <c r="F39">
+        <v>4.0067783932788243</v>
+      </c>
+      <c r="G39">
+        <v>-1.7128565503985513</v>
+      </c>
+      <c r="H39">
+        <v>3.3373038866247189</v>
+      </c>
+      <c r="I39">
+        <v>-1.8617444947444746</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
